--- a/Sheets/MAIN.xlsx
+++ b/Sheets/MAIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Term-2 Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Term-2 Sheet\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058DEA4E-AD2A-4DC0-AFD8-B06FAF824D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB216D-4876-4210-B597-4B5987D25E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{7D0E1B40-23DB-4E33-9495-A6342EBEF3C7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="4" xr2:uid="{7D0E1B40-23DB-4E33-9495-A6342EBEF3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics" sheetId="16" r:id="rId1"/>
@@ -30,21 +30,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Total!$I$2:$I$160</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ITDS!$E$4:$E$162</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">ITC!$E$4:$E$162</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">ITC!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ITDS!$I$4:$I$162</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">ITC!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">ITC!$E$4:$E$162</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">ITC!$I$4:$I$162</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">PROB!$D$4:$D$162</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">PROB!$I$4:$I$162</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">PROB!$E$4:$E$162</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">PROB!$I$4:$I$162</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">PROB!$E$4:$E$162</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">PROB!$D$4:$D$162</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">ITDS!$D$4:$D$162</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ITDS!$I$4:$I$162</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">MACRO!$E$4:$E$162</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">MACRO!$J$4:$J$162</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">MACRO!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">ITDS!$E$4:$E$162</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">MACRO!$J$4:$J$162</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">MACRO!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">MACRO!$E$4:$E$162</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">IC!$E$4:$E$162</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">IC!$I$4:$I$162</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">IC!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">IC!$D$4:$D$162</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">IC!$I$4:$I$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2479,7 +2479,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2573,7 +2573,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2634,7 +2634,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2844,7 +2844,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2907,7 +2907,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3023,7 +3023,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3117,7 +3117,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3296,7 +3296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3398,7 +3398,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3461,7 +3461,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3577,7 +3577,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3742,7 +3742,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -30482,8 +30482,8 @@
   </sheetPr>
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -36805,7 +36805,7 @@
   <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -37052,13 +37052,13 @@
         <f>IFERROR( ROUND((Table35672[[#This Row],[Quiz-1]]/$M$5)*$L$5 +(Table35672[[#This Row],[Mid-Term]]/$M$7)*$L$7+(Table35672[[#This Row],[Quiz 2]]/$M$6)*$L$6+(Table35672[[#This Row],[End Term]]/$M$8)*$L$8,3), 0)</f>
         <v>0.20599999999999999</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>538</v>
       </c>
       <c r="L9" s="10">
         <v>0.1</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>10</v>
       </c>
     </row>
@@ -37084,13 +37084,13 @@
         <f>IFERROR( ROUND((Table35672[[#This Row],[Quiz-1]]/$M$5)*$L$5 +(Table35672[[#This Row],[Mid-Term]]/$M$7)*$L$7+(Table35672[[#This Row],[Quiz 2]]/$M$6)*$L$6+(Table35672[[#This Row],[End Term]]/$M$8)*$L$8,3), 0)</f>
         <v>0.156</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>1</v>
       </c>
     </row>
@@ -37116,13 +37116,13 @@
         <f>IFERROR( ROUND((Table35672[[#This Row],[Quiz-1]]/$M$5)*$L$5 +(Table35672[[#This Row],[Mid-Term]]/$M$7)*$L$7+(Table35672[[#This Row],[Quiz 2]]/$M$6)*$L$6+(Table35672[[#This Row],[End Term]]/$M$8)*$L$8,3), 0)</f>
         <v>0.222</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -40422,8 +40422,8 @@
   </sheetPr>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A77" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -40523,7 +40523,7 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H35" ca="1" si="0">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.31728487806671701</v>
+        <v>0.29413128190390458</v>
       </c>
       <c r="I4">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40570,7 +40570,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59311082346333566</v>
+        <v>0.56734820878516767</v>
       </c>
       <c r="I5">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40617,7 +40617,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45645953270554795</v>
+        <v>0.48924162238076785</v>
       </c>
       <c r="I6">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40667,7 +40667,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58353919967398027</v>
+        <v>0.61101144224900361</v>
       </c>
       <c r="I7">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40708,7 +40708,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56662447529738236</v>
+        <v>0.6091184158778552</v>
       </c>
       <c r="I8">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40752,7 +40752,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61122656517892526</v>
+        <v>0.54388312273958594</v>
       </c>
       <c r="I9">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40796,7 +40796,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48213738623782587</v>
+        <v>0.62452634608960711</v>
       </c>
       <c r="I10">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40837,7 +40837,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53408385049328089</v>
+        <v>0.56767778430451554</v>
       </c>
       <c r="I11">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40878,7 +40878,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4686690090862542</v>
+        <v>0.4595100926094452</v>
       </c>
       <c r="I12">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40910,7 +40910,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6077929078454597</v>
+        <v>0.46167366289878065</v>
       </c>
       <c r="I13">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40948,7 +40948,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52753756462028434</v>
+        <v>0.60181225248941073</v>
       </c>
       <c r="I14">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -40990,7 +40990,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5922890555157313</v>
+        <v>0.46593036302862839</v>
       </c>
       <c r="I15">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41029,7 +41029,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40958857935706505</v>
+        <v>0.54329696846226783</v>
       </c>
       <c r="I16">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41061,7 +41061,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7759737950405643</v>
+        <v>0.76141454890657356</v>
       </c>
       <c r="I17">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41093,7 +41093,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45992832749337637</v>
+        <v>0.61991111297642232</v>
       </c>
       <c r="I18">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41128,7 +41128,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69005807975736522</v>
+        <v>0.54902482816663867</v>
       </c>
       <c r="I19">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41160,7 +41160,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47061058184243565</v>
+        <v>0.45826319554291806</v>
       </c>
       <c r="I20">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41195,7 +41195,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45691741975796962</v>
+        <v>0.34811657554102543</v>
       </c>
       <c r="I21">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41230,7 +41230,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40833917202207859</v>
+        <v>0.46703224554463518</v>
       </c>
       <c r="I22">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41265,7 +41265,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55303206172597907</v>
+        <v>0.53119399013980728</v>
       </c>
       <c r="I23">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41300,7 +41300,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5231223258675064</v>
+        <v>0.46980663901276665</v>
       </c>
       <c r="I24">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41332,7 +41332,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50540119817862794</v>
+        <v>0.63223341447867787</v>
       </c>
       <c r="I25">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41364,7 +41364,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57344510872414689</v>
+        <v>0.48809192613512148</v>
       </c>
       <c r="I26">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41396,7 +41396,7 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45246945104037506</v>
+        <v>0.48440300376411427</v>
       </c>
       <c r="I27">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41431,7 +41431,7 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39640920771256788</v>
+        <v>0.70650375518289499</v>
       </c>
       <c r="I28">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41463,7 +41463,7 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50185467764990677</v>
+        <v>0.4979663199260449</v>
       </c>
       <c r="I29">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41498,7 +41498,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46348891064066577</v>
+        <v>0.574176699205459</v>
       </c>
       <c r="I30">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41530,7 +41530,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62190413877692863</v>
+        <v>0.51767197425532518</v>
       </c>
       <c r="I31">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41562,7 +41562,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53083719320143896</v>
+        <v>0.45798249477286412</v>
       </c>
       <c r="I32">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41594,7 +41594,7 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42216718487328136</v>
+        <v>0.54116285886640358</v>
       </c>
       <c r="I33">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41626,7 +41626,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37513192548495861</v>
+        <v>0.42565219160078532</v>
       </c>
       <c r="I34">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41661,7 +41661,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45680635098442557</v>
+        <v>0.34925176118443335</v>
       </c>
       <c r="I35">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41706,7 +41706,7 @@
       </c>
       <c r="H36">
         <f t="shared" ref="H36:H52" ca="1" si="1">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.39573642465693726</v>
+        <v>0.40944300086506558</v>
       </c>
       <c r="I36">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41741,7 +41741,7 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45175681179309513</v>
+        <v>0.55764794153486619</v>
       </c>
       <c r="I37">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53397376364151083</v>
+        <v>0.47214571154857132</v>
       </c>
       <c r="I38">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41811,7 +41811,7 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38809171109994772</v>
+        <v>0.50307285019358339</v>
       </c>
       <c r="I39">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41843,7 +41843,7 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47174464077524347</v>
+        <v>0.58865338341680973</v>
       </c>
       <c r="I40">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41878,7 +41878,7 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26272320311802699</v>
+        <v>0.4710095750794096</v>
       </c>
       <c r="I41">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41913,7 +41913,7 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65698152666068577</v>
+        <v>0.29576006064011051</v>
       </c>
       <c r="I42">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41945,7 +41945,7 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53971208420135608</v>
+        <v>0.48006941937129888</v>
       </c>
       <c r="I43">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -41977,7 +41977,7 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71269506657841175</v>
+        <v>0.43494630916393506</v>
       </c>
       <c r="I44">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42012,7 +42012,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29711816062885632</v>
+        <v>0.51088138802085192</v>
       </c>
       <c r="I45">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42047,7 +42047,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51732177257388046</v>
+        <v>0.60660180232912542</v>
       </c>
       <c r="I46">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42079,7 +42079,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51666294333151541</v>
+        <v>0.45412401444012845</v>
       </c>
       <c r="I47">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42114,7 +42114,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34904881458676856</v>
+        <v>0.49140161025279677</v>
       </c>
       <c r="I48">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42146,7 +42146,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58568354785547105</v>
+        <v>0.56527696164801633</v>
       </c>
       <c r="I49">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42178,7 +42178,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39747186206845431</v>
+        <v>0.37353289284064206</v>
       </c>
       <c r="I50">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42213,7 +42213,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53857992508264241</v>
+        <v>0.4197939833996216</v>
       </c>
       <c r="I51">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42248,7 +42248,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40615004034167029</v>
+        <v>0.40983984959954445</v>
       </c>
       <c r="I52">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42314,7 +42314,7 @@
       </c>
       <c r="H54">
         <f t="shared" ref="H54:H85" ca="1" si="2">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.51004594073139509</v>
+        <v>0.61739557461024619</v>
       </c>
       <c r="I54">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42346,7 +42346,7 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30450454902400792</v>
+        <v>0.43183489858117963</v>
       </c>
       <c r="I55">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42381,7 +42381,7 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41525980713904814</v>
+        <v>0.61229225321147029</v>
       </c>
       <c r="I56">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42413,7 +42413,7 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37272580179443837</v>
+        <v>0.60876004507283799</v>
       </c>
       <c r="I57">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42448,7 +42448,7 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51834419086812311</v>
+        <v>0.53992377627457078</v>
       </c>
       <c r="I58">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42480,7 +42480,7 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47275691423848065</v>
+        <v>0.47561389290987532</v>
       </c>
       <c r="I59">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54356857552471938</v>
+        <v>0.611009583429589</v>
       </c>
       <c r="I60">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42550,7 +42550,7 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48986505753803355</v>
+        <v>0.49467818765241672</v>
       </c>
       <c r="I61">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42582,7 +42582,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33324097385202311</v>
+        <v>0.61557172000269944</v>
       </c>
       <c r="I62">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42617,7 +42617,7 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44332033408834248</v>
+        <v>0.46200908795207196</v>
       </c>
       <c r="I63">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42652,7 +42652,7 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3948290703732763</v>
+        <v>0.62989436760678386</v>
       </c>
       <c r="I64">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42687,7 +42687,7 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47381331795781512</v>
+        <v>0.37115088147955289</v>
       </c>
       <c r="I65">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42719,7 +42719,7 @@
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49261093626258562</v>
+        <v>0.33210091422043903</v>
       </c>
       <c r="I66">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42751,7 +42751,7 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43153335249532232</v>
+        <v>0.63120023738733166</v>
       </c>
       <c r="I67">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42783,7 +42783,7 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51976104837303316</v>
+        <v>0.61118553333259251</v>
       </c>
       <c r="I68">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42815,7 +42815,7 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51099648477065307</v>
+        <v>0.58140355652769515</v>
       </c>
       <c r="I69">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42850,7 +42850,7 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48437360348825592</v>
+        <v>0.42025761140204487</v>
       </c>
       <c r="I70">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42885,7 +42885,7 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38196446036157927</v>
+        <v>0.65634952299103566</v>
       </c>
       <c r="I71">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42920,7 +42920,7 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50193686167439944</v>
+        <v>0.45098562038088835</v>
       </c>
       <c r="I72">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42952,7 +42952,7 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5588451460777859</v>
+        <v>0.45152704588056636</v>
       </c>
       <c r="I73">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -42984,7 +42984,7 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39821829775010409</v>
+        <v>0.44223977775084988</v>
       </c>
       <c r="I74">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43019,7 +43019,7 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40219405756920856</v>
+        <v>0.44156462918214573</v>
       </c>
       <c r="I75">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43054,7 +43054,7 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53127982167863419</v>
+        <v>0.62902161727620398</v>
       </c>
       <c r="I76">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43089,7 +43089,7 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40600414975565297</v>
+        <v>0.52065911633025574</v>
       </c>
       <c r="I77">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43124,7 +43124,7 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59972335158690104</v>
+        <v>0.4863732245032763</v>
       </c>
       <c r="I78">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43156,7 +43156,7 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53429171035034895</v>
+        <v>0.37001409225673332</v>
       </c>
       <c r="I79">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5656761265905188</v>
+        <v>0.41759070455809461</v>
       </c>
       <c r="I80">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43223,7 +43223,7 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46758472899465275</v>
+        <v>0.38450376034532613</v>
       </c>
       <c r="I81">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43255,7 +43255,7 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56886193109412475</v>
+        <v>0.50156516987995448</v>
       </c>
       <c r="I82">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43290,7 +43290,7 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6352614957507885</v>
+        <v>0.67440010530416372</v>
       </c>
       <c r="I83">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43325,7 +43325,7 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34590268592259665</v>
+        <v>0.41847954152579331</v>
       </c>
       <c r="I84">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43360,7 +43360,7 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38972124008173614</v>
+        <v>0.40021984963624735</v>
       </c>
       <c r="I85">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="H86">
         <f t="shared" ref="H86:H117" ca="1" si="3">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.6456130850762225</v>
+        <v>0.6308110222118738</v>
       </c>
       <c r="I86">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43430,7 +43430,7 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48698888291371845</v>
+        <v>0.52694765355298057</v>
       </c>
       <c r="I87">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43462,7 +43462,7 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48004430311246182</v>
+        <v>0.4766807296913747</v>
       </c>
       <c r="I88">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43497,7 +43497,7 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52977273484685494</v>
+        <v>0.56482742248997153</v>
       </c>
       <c r="I89">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43529,7 +43529,7 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4687496585266745</v>
+        <v>0.61266036413478253</v>
       </c>
       <c r="I90">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43561,7 +43561,7 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43629010559297277</v>
+        <v>0.38908542388547029</v>
       </c>
       <c r="I91">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43593,7 +43593,7 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43089110451286378</v>
+        <v>0.60668122427951199</v>
       </c>
       <c r="I92">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43628,7 +43628,7 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39406790635465189</v>
+        <v>0.57588318909971392</v>
       </c>
       <c r="I93">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43660,7 +43660,7 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55041853389626905</v>
+        <v>0.44422031972770037</v>
       </c>
       <c r="I94">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43695,7 +43695,7 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49463244397621325</v>
+        <v>0.5066686431539531</v>
       </c>
       <c r="I95">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43730,7 +43730,7 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55327998303105774</v>
+        <v>0.51337185368220639</v>
       </c>
       <c r="I96">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43762,7 +43762,7 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46510636640205766</v>
+        <v>0.49478090052054535</v>
       </c>
       <c r="I97">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43794,7 +43794,7 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4347709572404882</v>
+        <v>0.66261741731238544</v>
       </c>
       <c r="I98">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43826,7 +43826,7 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4613393964430777</v>
+        <v>0.50060013582138263</v>
       </c>
       <c r="I99">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43858,7 +43858,7 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49515120161945675</v>
+        <v>0.53523819144044837</v>
       </c>
       <c r="I100">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43893,7 +43893,7 @@
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52587745454179891</v>
+        <v>0.38450243027158548</v>
       </c>
       <c r="I101">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43928,7 +43928,7 @@
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68491735990284552</v>
+        <v>0.35658856871297662</v>
       </c>
       <c r="I102">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43960,7 +43960,7 @@
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28684745626907948</v>
+        <v>0.46286766956438713</v>
       </c>
       <c r="I103">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -43995,7 +43995,7 @@
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51919477522072655</v>
+        <v>0.49625510934852279</v>
       </c>
       <c r="I104">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44030,7 +44030,7 @@
       </c>
       <c r="H105">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38232449797402479</v>
+        <v>0.47381436603708593</v>
       </c>
       <c r="I105">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44062,7 +44062,7 @@
       </c>
       <c r="H106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49204873723193482</v>
+        <v>0.47169917151574781</v>
       </c>
       <c r="I106">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44097,7 +44097,7 @@
       </c>
       <c r="H107">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32049658200835224</v>
+        <v>0.46830740181302782</v>
       </c>
       <c r="I107">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="H108">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58526661032112837</v>
+        <v>0.45933310553906992</v>
       </c>
       <c r="I108">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44167,7 +44167,7 @@
       </c>
       <c r="H109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45560590634473497</v>
+        <v>0.48094859766706832</v>
       </c>
       <c r="I109">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44202,7 +44202,7 @@
       </c>
       <c r="H110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61894114609613315</v>
+        <v>0.42182514867461374</v>
       </c>
       <c r="I110">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44234,7 +44234,7 @@
       </c>
       <c r="H111">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46699030078249709</v>
+        <v>0.40673368186687436</v>
       </c>
       <c r="I111">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44266,7 +44266,7 @@
       </c>
       <c r="H112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47500727473195203</v>
+        <v>0.48178817910141747</v>
       </c>
       <c r="I112">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44298,7 +44298,7 @@
       </c>
       <c r="H113">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6478606881208443</v>
+        <v>0.49169224520161359</v>
       </c>
       <c r="I113">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44333,7 +44333,7 @@
       </c>
       <c r="H114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5587115886829761</v>
+        <v>0.71229983888456472</v>
       </c>
       <c r="I114">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44365,7 +44365,7 @@
       </c>
       <c r="H115">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44272935592629636</v>
+        <v>0.42211252978809821</v>
       </c>
       <c r="I115">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44397,7 +44397,7 @@
       </c>
       <c r="H116">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63242118396772162</v>
+        <v>0.61280548223812104</v>
       </c>
       <c r="I116">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44429,7 +44429,7 @@
       </c>
       <c r="H117">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38481077655833912</v>
+        <v>0.63201558700135174</v>
       </c>
       <c r="I117">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44464,7 +44464,7 @@
       </c>
       <c r="H118">
         <f t="shared" ref="H118:H133" ca="1" si="4">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.50855842246737948</v>
+        <v>0.7022387926409136</v>
       </c>
       <c r="I118">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44496,7 +44496,7 @@
       </c>
       <c r="H119">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4142656722812082</v>
+        <v>0.66031527573814253</v>
       </c>
       <c r="I119">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44528,7 +44528,7 @@
       </c>
       <c r="H120">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58815016853448321</v>
+        <v>0.35982949796331876</v>
       </c>
       <c r="I120">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44560,7 +44560,7 @@
       </c>
       <c r="H121">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4718741736520341</v>
+        <v>0.56116487603284559</v>
       </c>
       <c r="I121">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44595,7 +44595,7 @@
       </c>
       <c r="H122">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40988779532499259</v>
+        <v>0.44313868705478437</v>
       </c>
       <c r="I122">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44630,7 +44630,7 @@
       </c>
       <c r="H123">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55429521821013295</v>
+        <v>0.52755596855455489</v>
       </c>
       <c r="I123">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44665,7 +44665,7 @@
       </c>
       <c r="H124">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50445238028594508</v>
+        <v>0.46982224719634269</v>
       </c>
       <c r="I124">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44697,7 +44697,7 @@
       </c>
       <c r="H125">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42567613133280774</v>
+        <v>0.50995749989686201</v>
       </c>
       <c r="I125">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44732,7 +44732,7 @@
       </c>
       <c r="H126">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56692157324726666</v>
+        <v>0.60833373619486941</v>
       </c>
       <c r="I126">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44767,7 +44767,7 @@
       </c>
       <c r="H127">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60048387684391225</v>
+        <v>0.66037089874658506</v>
       </c>
       <c r="I127">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44799,7 +44799,7 @@
       </c>
       <c r="H128">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49313193559638729</v>
+        <v>0.36892712028826691</v>
       </c>
       <c r="I128">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44831,7 +44831,7 @@
       </c>
       <c r="H129">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5349950353081141</v>
+        <v>0.43598463384336289</v>
       </c>
       <c r="I129">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44863,7 +44863,7 @@
       </c>
       <c r="H130">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4206143811619853</v>
+        <v>0.58389737003187847</v>
       </c>
       <c r="I130">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44895,7 +44895,7 @@
       </c>
       <c r="H131">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38632208348363301</v>
+        <v>0.49833672188858363</v>
       </c>
       <c r="I131">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44927,7 +44927,7 @@
       </c>
       <c r="H132">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47739004773414623</v>
+        <v>0.52986707941918254</v>
       </c>
       <c r="I132">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -44962,7 +44962,7 @@
       </c>
       <c r="H133">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49517564763969418</v>
+        <v>0.63522284262930473</v>
       </c>
       <c r="I133">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45028,7 +45028,7 @@
       </c>
       <c r="H135">
         <f t="shared" ref="H135:H162" ca="1" si="5">NORMINV(RAND(),$Q$5,$Q$6)</f>
-        <v>0.41736097001478722</v>
+        <v>0.43691397372494284</v>
       </c>
       <c r="I135">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45063,7 +45063,7 @@
       </c>
       <c r="H136">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28512243132760251</v>
+        <v>0.45621242020787539</v>
       </c>
       <c r="I136">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45098,7 +45098,7 @@
       </c>
       <c r="H137">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50487104635334978</v>
+        <v>0.43190361226713836</v>
       </c>
       <c r="I137">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45130,7 +45130,7 @@
       </c>
       <c r="H138">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48969919510054216</v>
+        <v>0.36352976635656237</v>
       </c>
       <c r="I138">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45165,7 +45165,7 @@
       </c>
       <c r="H139">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51897520146924059</v>
+        <v>0.65490360510598322</v>
       </c>
       <c r="I139">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45197,7 +45197,7 @@
       </c>
       <c r="H140">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63099836702669487</v>
+        <v>0.35214310521342468</v>
       </c>
       <c r="I140">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45229,7 +45229,7 @@
       </c>
       <c r="H141">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6275250611827603</v>
+        <v>0.47207493413335072</v>
       </c>
       <c r="I141">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45261,7 +45261,7 @@
       </c>
       <c r="H142">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6586853536462749</v>
+        <v>0.39514794127298386</v>
       </c>
       <c r="I142">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45296,7 +45296,7 @@
       </c>
       <c r="H143">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4831160890751422</v>
+        <v>0.57233703805535363</v>
       </c>
       <c r="I143">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45328,7 +45328,7 @@
       </c>
       <c r="H144">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58189714230692668</v>
+        <v>0.4153152801884295</v>
       </c>
       <c r="I144">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45360,7 +45360,7 @@
       </c>
       <c r="H145">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43372443069569411</v>
+        <v>0.50762111156302692</v>
       </c>
       <c r="I145">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="H146">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40528672045069403</v>
+        <v>0.5215391744278175</v>
       </c>
       <c r="I146">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45430,7 +45430,7 @@
       </c>
       <c r="H147">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49775135823421512</v>
+        <v>0.70192982502793055</v>
       </c>
       <c r="I147">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45462,7 +45462,7 @@
       </c>
       <c r="H148">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50427388241918625</v>
+        <v>0.53003959050659155</v>
       </c>
       <c r="I148">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45497,7 +45497,7 @@
       </c>
       <c r="H149">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48344239342679163</v>
+        <v>0.45890644310722972</v>
       </c>
       <c r="I149">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45532,7 +45532,7 @@
       </c>
       <c r="H150">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52183852493398586</v>
+        <v>0.59698606785370645</v>
       </c>
       <c r="I150">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H151">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45722555663191028</v>
+        <v>0.53440640167187248</v>
       </c>
       <c r="I151">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45596,7 +45596,7 @@
       </c>
       <c r="H152">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5865489372927627</v>
+        <v>0.39915069015197069</v>
       </c>
       <c r="I152">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45631,7 +45631,7 @@
       </c>
       <c r="H153">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56581670636759973</v>
+        <v>0.54777811854929659</v>
       </c>
       <c r="I153">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45666,7 +45666,7 @@
       </c>
       <c r="H154">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38614467518037887</v>
+        <v>0.55372200441651243</v>
       </c>
       <c r="I154">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45698,7 +45698,7 @@
       </c>
       <c r="H155">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74285647781074016</v>
+        <v>0.46191352477335273</v>
       </c>
       <c r="I155">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45730,7 +45730,7 @@
       </c>
       <c r="H156">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32293443977734282</v>
+        <v>0.6891048541138256</v>
       </c>
       <c r="I156">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45762,7 +45762,7 @@
       </c>
       <c r="H157">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61347801912083999</v>
+        <v>0.57179967728646575</v>
       </c>
       <c r="I157">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45794,7 +45794,7 @@
       </c>
       <c r="H158">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44147974324725464</v>
+        <v>0.46368848278485142</v>
       </c>
       <c r="I158">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45826,7 +45826,7 @@
       </c>
       <c r="H159">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42534669197309638</v>
+        <v>0.74103807368615116</v>
       </c>
       <c r="I159">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45858,7 +45858,7 @@
       </c>
       <c r="H160">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47051722070332486</v>
+        <v>0.6424669416205977</v>
       </c>
       <c r="I160">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45893,7 +45893,7 @@
       </c>
       <c r="H161">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53435986310514016</v>
+        <v>0.40770564178536278</v>
       </c>
       <c r="I161">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45925,7 +45925,7 @@
       </c>
       <c r="H162">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47723397523815175</v>
+        <v>0.37939207327570301</v>
       </c>
       <c r="I162">
         <f ca="1">_xlfn.RANK.EQ(Table3567[[#This Row],[Total Weighted ABS Score]],Table3567[Total Weighted ABS Score],0)</f>
@@ -45970,7 +45970,7 @@
   </sheetPr>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -50844,8 +50844,8 @@
   </sheetPr>
   <dimension ref="A1:R162"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView topLeftCell="A56" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -55079,8 +55079,8 @@
   </sheetPr>
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A112" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
